--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ctf1-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ctf1-Lifr.xlsx
@@ -543,10 +543,10 @@
         <v>0.435455</v>
       </c>
       <c r="I2">
-        <v>0.06735911672630875</v>
+        <v>0.06742302838872502</v>
       </c>
       <c r="J2">
-        <v>0.06735911672630873</v>
+        <v>0.06742302838872503</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.31197333333334</v>
+        <v>38.745275</v>
       </c>
       <c r="N2">
-        <v>78.93592000000001</v>
+        <v>116.235825</v>
       </c>
       <c r="O2">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="P2">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="Q2">
-        <v>3.819226782622223</v>
+        <v>5.623941241708333</v>
       </c>
       <c r="R2">
-        <v>34.3730410436</v>
+        <v>50.61547117537499</v>
       </c>
       <c r="S2">
-        <v>0.0152336630701191</v>
+        <v>0.02130783004161647</v>
       </c>
       <c r="T2">
-        <v>0.0152336630701191</v>
+        <v>0.02130783004161647</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.435455</v>
       </c>
       <c r="I3">
-        <v>0.06735911672630875</v>
+        <v>0.06742302838872502</v>
       </c>
       <c r="J3">
-        <v>0.06735911672630873</v>
+        <v>0.06742302838872503</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>161.224525</v>
       </c>
       <c r="O3">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="P3">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="Q3">
-        <v>7.80066950376389</v>
+        <v>7.800669503763888</v>
       </c>
       <c r="R3">
-        <v>70.20602553387501</v>
+        <v>70.20602553387499</v>
       </c>
       <c r="S3">
-        <v>0.03111435316760727</v>
+        <v>0.02955495672044609</v>
       </c>
       <c r="T3">
-        <v>0.03111435316760726</v>
+        <v>0.0295549567204461</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.435455</v>
       </c>
       <c r="I4">
-        <v>0.06735911672630875</v>
+        <v>0.06742302838872502</v>
       </c>
       <c r="J4">
-        <v>0.06735911672630873</v>
+        <v>0.06742302838872503</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.31221833333333</v>
+        <v>17.38482166666667</v>
       </c>
       <c r="N4">
-        <v>42.936655</v>
+        <v>52.154465</v>
       </c>
       <c r="O4">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="P4">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="Q4">
-        <v>2.077442344780556</v>
+        <v>2.523435839619444</v>
       </c>
       <c r="R4">
-        <v>18.696981103025</v>
+        <v>22.710922556575</v>
       </c>
       <c r="S4">
-        <v>0.008286247067595395</v>
+        <v>0.00956072257525969</v>
       </c>
       <c r="T4">
-        <v>0.008286247067595391</v>
+        <v>0.009560722575259693</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.435455</v>
       </c>
       <c r="I5">
-        <v>0.06735911672630875</v>
+        <v>0.06742302838872502</v>
       </c>
       <c r="J5">
-        <v>0.06735911672630873</v>
+        <v>0.06742302838872503</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.978693</v>
+        <v>12.72763533333333</v>
       </c>
       <c r="N5">
-        <v>65.93607899999999</v>
+        <v>38.182906</v>
       </c>
       <c r="O5">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="P5">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="Q5">
-        <v>3.190243920105</v>
+        <v>1.847437481358889</v>
       </c>
       <c r="R5">
-        <v>28.712195280945</v>
+        <v>16.62693733223</v>
       </c>
       <c r="S5">
-        <v>0.01272485342098699</v>
+        <v>0.006999519051402765</v>
       </c>
       <c r="T5">
-        <v>0.01272485342098699</v>
+        <v>0.006999519051402767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3560033333333334</v>
+        <v>0.3560033333333333</v>
       </c>
       <c r="H6">
         <v>1.06801</v>
       </c>
       <c r="I6">
-        <v>0.1652069909746472</v>
+        <v>0.1653637426357309</v>
       </c>
       <c r="J6">
-        <v>0.1652069909746472</v>
+        <v>0.1653637426357309</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.31197333333334</v>
+        <v>38.745275</v>
       </c>
       <c r="N6">
-        <v>78.93592000000001</v>
+        <v>116.235825</v>
       </c>
       <c r="O6">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="P6">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="Q6">
-        <v>9.367150213244448</v>
+        <v>13.79344705091667</v>
       </c>
       <c r="R6">
-        <v>84.30435191920002</v>
+        <v>124.14102345825</v>
       </c>
       <c r="S6">
-        <v>0.03736253917286034</v>
+        <v>0.05226022335889313</v>
       </c>
       <c r="T6">
-        <v>0.03736253917286034</v>
+        <v>0.05226022335889313</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3560033333333334</v>
+        <v>0.3560033333333333</v>
       </c>
       <c r="H7">
         <v>1.06801</v>
       </c>
       <c r="I7">
-        <v>0.1652069909746472</v>
+        <v>0.1653637426357309</v>
       </c>
       <c r="J7">
-        <v>0.1652069909746472</v>
+        <v>0.1653637426357309</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>161.224525</v>
       </c>
       <c r="O7">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="P7">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="Q7">
         <v>19.13215610502778</v>
@@ -883,10 +883,10 @@
         <v>172.18940494525</v>
       </c>
       <c r="S7">
-        <v>0.07631199624883452</v>
+        <v>0.07248737372863701</v>
       </c>
       <c r="T7">
-        <v>0.0763119962488345</v>
+        <v>0.07248737372863702</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.3560033333333334</v>
+        <v>0.3560033333333333</v>
       </c>
       <c r="H8">
         <v>1.06801</v>
       </c>
       <c r="I8">
-        <v>0.1652069909746472</v>
+        <v>0.1653637426357309</v>
       </c>
       <c r="J8">
-        <v>0.1652069909746472</v>
+        <v>0.1653637426357309</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.31221833333333</v>
+        <v>17.38482166666667</v>
       </c>
       <c r="N8">
-        <v>42.936655</v>
+        <v>52.154465</v>
       </c>
       <c r="O8">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="P8">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="Q8">
-        <v>5.095197434061112</v>
+        <v>6.189054462738889</v>
       </c>
       <c r="R8">
-        <v>45.85677690655001</v>
+        <v>55.70149016465</v>
       </c>
       <c r="S8">
-        <v>0.02032309820914344</v>
+        <v>0.02344891508331079</v>
       </c>
       <c r="T8">
-        <v>0.02032309820914344</v>
+        <v>0.0234489150833108</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.3560033333333334</v>
+        <v>0.3560033333333333</v>
       </c>
       <c r="H9">
         <v>1.06801</v>
       </c>
       <c r="I9">
-        <v>0.1652069909746472</v>
+        <v>0.1653637426357309</v>
       </c>
       <c r="J9">
-        <v>0.1652069909746472</v>
+        <v>0.1653637426357309</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.978693</v>
+        <v>12.72763533333333</v>
       </c>
       <c r="N9">
-        <v>65.93607899999999</v>
+        <v>38.182906</v>
       </c>
       <c r="O9">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="P9">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="Q9">
-        <v>7.82448797031</v>
+        <v>4.531080604117777</v>
       </c>
       <c r="R9">
-        <v>70.42039173278999</v>
+        <v>40.77972543706</v>
       </c>
       <c r="S9">
-        <v>0.03120935734380893</v>
+        <v>0.01716723046488998</v>
       </c>
       <c r="T9">
-        <v>0.03120935734380892</v>
+        <v>0.01716723046488999</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.653737666666666</v>
+        <v>1.651695</v>
       </c>
       <c r="H10">
-        <v>4.961212999999999</v>
+        <v>4.955085</v>
       </c>
       <c r="I10">
-        <v>0.7674338922990441</v>
+        <v>0.767213228975544</v>
       </c>
       <c r="J10">
-        <v>0.767433892299044</v>
+        <v>0.7672132289755441</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.31197333333334</v>
+        <v>38.745275</v>
       </c>
       <c r="N10">
-        <v>78.93592000000001</v>
+        <v>116.235825</v>
       </c>
       <c r="O10">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="P10">
-        <v>0.2261559208386891</v>
+        <v>0.3160319337595895</v>
       </c>
       <c r="Q10">
-        <v>43.51310138566222</v>
+        <v>63.995376991125</v>
       </c>
       <c r="R10">
-        <v>391.61791247096</v>
+        <v>575.9583929201249</v>
       </c>
       <c r="S10">
-        <v>0.1735597185957097</v>
+        <v>0.2424638803590799</v>
       </c>
       <c r="T10">
-        <v>0.1735597185957096</v>
+        <v>0.2424638803590799</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.653737666666666</v>
+        <v>1.651695</v>
       </c>
       <c r="H11">
-        <v>4.961212999999999</v>
+        <v>4.955085</v>
       </c>
       <c r="I11">
-        <v>0.7674338922990441</v>
+        <v>0.767213228975544</v>
       </c>
       <c r="J11">
-        <v>0.767433892299044</v>
+        <v>0.7672132289755441</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>161.224525</v>
       </c>
       <c r="O11">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="P11">
-        <v>0.461917475759518</v>
+        <v>0.4383510712400526</v>
       </c>
       <c r="Q11">
-        <v>88.87435659431388</v>
+        <v>88.764580606625</v>
       </c>
       <c r="R11">
-        <v>799.8692093488248</v>
+        <v>798.8812254596249</v>
       </c>
       <c r="S11">
-        <v>0.3544911263430763</v>
+        <v>0.3363087407909695</v>
       </c>
       <c r="T11">
-        <v>0.3544911263430762</v>
+        <v>0.3363087407909695</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.653737666666666</v>
+        <v>1.651695</v>
       </c>
       <c r="H12">
-        <v>4.961212999999999</v>
+        <v>4.955085</v>
       </c>
       <c r="I12">
-        <v>0.7674338922990441</v>
+        <v>0.767213228975544</v>
       </c>
       <c r="J12">
-        <v>0.767433892299044</v>
+        <v>0.7672132289755441</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.31221833333333</v>
+        <v>17.38482166666667</v>
       </c>
       <c r="N12">
-        <v>42.936655</v>
+        <v>52.154465</v>
       </c>
       <c r="O12">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="P12">
-        <v>0.123015969779767</v>
+        <v>0.1418020341675798</v>
       </c>
       <c r="Q12">
-        <v>23.66865455139055</v>
+        <v>28.714423022725</v>
       </c>
       <c r="R12">
-        <v>213.017890962515</v>
+        <v>258.429807204525</v>
       </c>
       <c r="S12">
-        <v>0.09440662450302817</v>
+        <v>0.1087923965090093</v>
       </c>
       <c r="T12">
-        <v>0.09440662450302814</v>
+        <v>0.1087923965090094</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.653737666666666</v>
+        <v>1.651695</v>
       </c>
       <c r="H13">
-        <v>4.961212999999999</v>
+        <v>4.955085</v>
       </c>
       <c r="I13">
-        <v>0.7674338922990441</v>
+        <v>0.767213228975544</v>
       </c>
       <c r="J13">
-        <v>0.767433892299044</v>
+        <v>0.7672132289755441</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.978693</v>
+        <v>12.72763533333333</v>
       </c>
       <c r="N13">
-        <v>65.93607899999999</v>
+        <v>38.182906</v>
       </c>
       <c r="O13">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="P13">
-        <v>0.1889106336220259</v>
+        <v>0.103814960832778</v>
       </c>
       <c r="Q13">
-        <v>36.34699247820298</v>
+        <v>21.02217164189</v>
       </c>
       <c r="R13">
-        <v>327.1229323038269</v>
+        <v>189.19954477701</v>
       </c>
       <c r="S13">
-        <v>0.14497642285723</v>
+        <v>0.07964821131648522</v>
       </c>
       <c r="T13">
-        <v>0.14497642285723</v>
+        <v>0.07964821131648522</v>
       </c>
     </row>
   </sheetData>
